--- a/biology/Zoologie/Brochet/Brochet.xlsx
+++ b/biology/Zoologie/Brochet/Brochet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brochet (/bʁɔʃɛ/) est un nom vernaculaire ambigu désignant en français certains poissons prédateurs. Le terme brochet dérive du terme broche, à cause de la forme pointue du museau de ces poissons[1]. Dans le langage populaire ou en cuisine, ce nom désigne généralement le Grand brochet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brochet (/bʁɔʃɛ/) est un nom vernaculaire ambigu désignant en français certains poissons prédateurs. Le terme brochet dérive du terme broche, à cause de la forme pointue du museau de ces poissons. Dans le langage populaire ou en cuisine, ce nom désigne généralement le Grand brochet.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[2] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
 En gras, les espèces les plus connues des francophones.
 les Brochets, Poissons du genre Esox comme :
@@ -554,7 +568,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brochets peuplent les cours d'eau de seconde catégorie et certains cours d'eau de première catégorie, les étangs/lacs, les canaux et les bras morts des rivières. Ils sont très communs et ne sont pas en voie d'extinction. 
 Les brochets sont des poissons qui apprécient les structures immergées comme les arbres morts, les algues ou les pierres où ils se cachent pour attendre leurs proies. 
@@ -587,7 +603,9 @@
           <t>Taille et Poids</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brochet est un poisson pouvant atteindre des tailles remarquables, jusque 1.40m. Généralement, un brochet mesure entre 40 et 80cm. Un brochet est considéré comme un gros spécimen à partir du mètre, pouvant être atteint si le milieu est favorable. Pour le poids, un brochet va peser généralement entre 0.5 et 4kg. Lorsqu'un brochet mesure 1m, il pèsera généralement entre 8 et 12kg. Son poids maximum est de 18kg pour 1m40.
 </t>
@@ -618,7 +636,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brochet est un poisson carnassier, ce qui signifie qu'il se nourrit majoritairement de poissons. Il se nourrit généralement des espèces de poissons qui se trouvent sur son plan d'eau ou sa rivière. Il peut manger des gardons, des ablettes, de chevesnes, de brêmes ou même de petits brochets. Il peut également se nourrir de petits crustacés comme des crevettes ou des écrevisses. Il apprécie aussi les grenouilles ou autres amphibiens.
 </t>
